--- a/public/Laporan_Pengeluaran_Truck_Crane.xlsx
+++ b/public/Laporan_Pengeluaran_Truck_Crane.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
   <si>
     <t>Laporan Pencatatan Pengeluaran</t>
   </si>
@@ -41,49 +41,28 @@
     <t>Harga</t>
   </si>
   <si>
-    <t>2024-08-07</t>
-  </si>
-  <si>
-    <t>Adi</t>
-  </si>
-  <si>
-    <t>BP 9088 EY</t>
-  </si>
-  <si>
-    <t>Beli BBM</t>
-  </si>
-  <si>
-    <t>BBM</t>
-  </si>
-  <si>
-    <t>2024-08-08</t>
-  </si>
-  <si>
-    <t>isi bbm</t>
-  </si>
-  <si>
-    <t>2024-08-06</t>
+    <t>2024-08-02</t>
+  </si>
+  <si>
+    <t>Badur</t>
   </si>
   <si>
     <t>BP 9520 ZG</t>
   </si>
   <si>
-    <t>2024-08-05</t>
-  </si>
-  <si>
-    <t>Ahmad</t>
-  </si>
-  <si>
-    <t>BP 8914 ZE</t>
-  </si>
-  <si>
-    <t>Mengisi BBM</t>
+    <t>Pasang Lampu Tambahan</t>
+  </si>
+  <si>
+    <t>Perawatan</t>
+  </si>
+  <si>
+    <t>1.000.000</t>
   </si>
   <si>
     <t>Total Harga:</t>
   </si>
   <si>
-    <t>Rp 1.950.000</t>
+    <t>Rp 1.000.000</t>
   </si>
 </sst>
 </file>
@@ -476,7 +455,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A2" sqref="A2:G2"/>
@@ -488,7 +467,7 @@
     <col min="2" max="2" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="13.997" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="13.997" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="25.851" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="15.282" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="15.282" bestFit="true" customWidth="true" style="0"/>
   </cols>
@@ -540,113 +519,21 @@
       <c r="F3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="2">
-        <v>500.0</v>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="2">
-        <v>250.0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="2">
-        <v>500.0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="2">
-        <v>500.0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="2">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="2">
-        <v>200.0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
